--- a/pred_ohlcv/54_21/2019-10-30 MTL ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-30 MTL ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>-4635.155683050003</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -3330,7 +3330,7 @@
         <v>892559.86051695</v>
       </c>
       <c r="H113">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3382,7 +3382,7 @@
         <v>889684.82871695</v>
       </c>
       <c r="H115">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3590,7 +3590,7 @@
         <v>885509.69091695</v>
       </c>
       <c r="H123">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -3616,7 +3616,7 @@
         <v>885561.70541695</v>
       </c>
       <c r="H124">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -3642,7 +3642,7 @@
         <v>885562.70541695</v>
       </c>
       <c r="H125">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -3668,7 +3668,7 @@
         <v>884902.2454169501</v>
       </c>
       <c r="H126">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -3694,7 +3694,7 @@
         <v>884903.2454169501</v>
       </c>
       <c r="H127">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -3720,7 +3720,7 @@
         <v>887931.1866169501</v>
       </c>
       <c r="H128">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -3746,7 +3746,7 @@
         <v>895632.2723899001</v>
       </c>
       <c r="H129">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -4214,7 +4214,7 @@
         <v>880687.4729898999</v>
       </c>
       <c r="H147">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4240,7 +4240,7 @@
         <v>879424.9973898999</v>
       </c>
       <c r="H148">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4266,7 +4266,7 @@
         <v>879426.1773899</v>
       </c>
       <c r="H149">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4292,7 +4292,7 @@
         <v>879437.2073899</v>
       </c>
       <c r="H150">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -4318,7 +4318,7 @@
         <v>879379.4436899</v>
       </c>
       <c r="H151">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -4344,7 +4344,7 @@
         <v>879379.4436899</v>
       </c>
       <c r="H152">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -4370,7 +4370,7 @@
         <v>879447.4436899</v>
       </c>
       <c r="H153">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -4396,7 +4396,7 @@
         <v>879447.4436899</v>
       </c>
       <c r="H154">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -4422,7 +4422,7 @@
         <v>879071.0108899</v>
       </c>
       <c r="H155">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -4448,7 +4448,7 @@
         <v>878537.8453899</v>
       </c>
       <c r="H156">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -4474,7 +4474,7 @@
         <v>878538.9653899</v>
       </c>
       <c r="H157">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -4500,7 +4500,7 @@
         <v>867053.2106899</v>
       </c>
       <c r="H158">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -4526,7 +4526,7 @@
         <v>867054.2106899</v>
       </c>
       <c r="H159">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -4942,7 +4942,7 @@
         <v>868673.9874853301</v>
       </c>
       <c r="H175">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -4968,7 +4968,7 @@
         <v>868673.9874853301</v>
       </c>
       <c r="H176">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -5072,7 +5072,7 @@
         <v>873067.68008533</v>
       </c>
       <c r="H180">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -5098,7 +5098,7 @@
         <v>873068.68008533</v>
       </c>
       <c r="H181">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -5176,7 +5176,7 @@
         <v>871409.5362853301</v>
       </c>
       <c r="H184">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -5202,7 +5202,7 @@
         <v>873410.5362853301</v>
       </c>
       <c r="H185">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -5280,7 +5280,7 @@
         <v>871965.7980853301</v>
       </c>
       <c r="H188">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -9856,7 +9856,7 @@
         <v>904460.3644848604</v>
       </c>
       <c r="H364">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="365" spans="1:8">
@@ -9882,7 +9882,7 @@
         <v>909496.4525848605</v>
       </c>
       <c r="H365">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="366" spans="1:8">
@@ -9908,7 +9908,7 @@
         <v>909496.4525848605</v>
       </c>
       <c r="H366">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="367" spans="1:8">
@@ -9934,7 +9934,7 @@
         <v>909496.4525848605</v>
       </c>
       <c r="H367">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="368" spans="1:8">
@@ -9986,7 +9986,7 @@
         <v>902225.3484848605</v>
       </c>
       <c r="H369">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="370" spans="1:8">
@@ -10012,7 +10012,7 @@
         <v>900054.2824848605</v>
       </c>
       <c r="H370">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="371" spans="1:8">
@@ -10038,7 +10038,7 @@
         <v>900076.7848848605</v>
       </c>
       <c r="H371">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="372" spans="1:8">
@@ -10064,7 +10064,7 @@
         <v>900076.7848848605</v>
       </c>
       <c r="H372">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="373" spans="1:8">
@@ -10090,7 +10090,7 @@
         <v>895470.2959848605</v>
       </c>
       <c r="H373">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="374" spans="1:8">
@@ -10116,7 +10116,7 @@
         <v>927872.5995848605</v>
       </c>
       <c r="H374">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="375" spans="1:8">
@@ -10142,7 +10142,7 @@
         <v>937214.2145848605</v>
       </c>
       <c r="H375">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="376" spans="1:8">
@@ -11650,7 +11650,7 @@
         <v>908230.8438546804</v>
       </c>
       <c r="H433">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="434" spans="1:8">
@@ -16642,7 +16642,7 @@
         <v>1162306.37966013</v>
       </c>
       <c r="H625">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="626" spans="1:8">
@@ -16668,7 +16668,7 @@
         <v>1145474.62256013</v>
       </c>
       <c r="H626">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="627" spans="1:8">
@@ -16746,7 +16746,7 @@
         <v>1147325.84970673</v>
       </c>
       <c r="H629">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="630" spans="1:8">
@@ -16772,7 +16772,7 @@
         <v>1195547.04478602</v>
       </c>
       <c r="H630">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="631" spans="1:8">
@@ -16798,7 +16798,7 @@
         <v>1188941.84250342</v>
       </c>
       <c r="H631">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="632" spans="1:8">
@@ -16824,7 +16824,7 @@
         <v>1188941.84250342</v>
       </c>
       <c r="H632">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="633" spans="1:8">
@@ -16850,7 +16850,7 @@
         <v>1180031.69060342</v>
       </c>
       <c r="H633">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="634" spans="1:8">
@@ -16876,7 +16876,7 @@
         <v>1190688.39133552</v>
       </c>
       <c r="H634">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="635" spans="1:8">
@@ -16902,7 +16902,7 @@
         <v>1190688.39133552</v>
       </c>
       <c r="H635">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="636" spans="1:8">
@@ -16928,7 +16928,7 @@
         <v>1208607.88078257</v>
       </c>
       <c r="H636">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="637" spans="1:8">
@@ -16954,7 +16954,7 @@
         <v>1241884.56394735</v>
       </c>
       <c r="H637">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="638" spans="1:8">
@@ -16980,7 +16980,7 @@
         <v>1336574.10888612</v>
       </c>
       <c r="H638">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="639" spans="1:8">
@@ -17006,7 +17006,7 @@
         <v>1336574.10888612</v>
       </c>
       <c r="H639">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="640" spans="1:8">
@@ -17032,7 +17032,7 @@
         <v>1373617.86078612</v>
       </c>
       <c r="H640">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="641" spans="1:8">
@@ -17058,7 +17058,7 @@
         <v>1373617.86078612</v>
       </c>
       <c r="H641">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="642" spans="1:8">
@@ -17084,7 +17084,7 @@
         <v>1373617.86078612</v>
       </c>
       <c r="H642">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="643" spans="1:8">
@@ -17110,7 +17110,7 @@
         <v>1373617.86078612</v>
       </c>
       <c r="H643">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="644" spans="1:8">
@@ -17136,7 +17136,7 @@
         <v>1384904.82711555</v>
       </c>
       <c r="H644">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="645" spans="1:8">
@@ -17162,7 +17162,7 @@
         <v>1371678.83691555</v>
       </c>
       <c r="H645">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="646" spans="1:8">
@@ -17188,7 +17188,7 @@
         <v>1327880.26951555</v>
       </c>
       <c r="H646">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="647" spans="1:8">
@@ -17214,7 +17214,7 @@
         <v>1327880.26951555</v>
       </c>
       <c r="H647">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="648" spans="1:8">
@@ -17266,7 +17266,7 @@
         <v>1472404.32193887</v>
       </c>
       <c r="H649">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="650" spans="1:8">
@@ -17318,7 +17318,7 @@
         <v>1474337.24623887</v>
       </c>
       <c r="H651">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="652" spans="1:8">
@@ -17344,7 +17344,7 @@
         <v>1444252.82663887</v>
       </c>
       <c r="H652">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="653" spans="1:8">
@@ -17422,7 +17422,7 @@
         <v>1506986.26023679</v>
       </c>
       <c r="H655">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="656" spans="1:8">
@@ -17448,7 +17448,7 @@
         <v>1486898.15293679</v>
       </c>
       <c r="H656">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="657" spans="1:8">
@@ -17474,7 +17474,7 @@
         <v>1480799.81303679</v>
       </c>
       <c r="H657">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="658" spans="1:8">
@@ -17500,7 +17500,7 @@
         <v>1463828.13553679</v>
       </c>
       <c r="H658">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="659" spans="1:8">
@@ -17526,7 +17526,7 @@
         <v>1484273.76763679</v>
       </c>
       <c r="H659">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="660" spans="1:8">
@@ -17552,7 +17552,7 @@
         <v>1478563.01123679</v>
       </c>
       <c r="H660">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="661" spans="1:8">
@@ -17578,7 +17578,7 @@
         <v>1478563.01123679</v>
       </c>
       <c r="H661">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="662" spans="1:8">
@@ -17604,7 +17604,7 @@
         <v>1472863.26453679</v>
       </c>
       <c r="H662">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="663" spans="1:8">
@@ -17630,7 +17630,7 @@
         <v>1480047.31363679</v>
       </c>
       <c r="H663">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="664" spans="1:8">
@@ -17656,7 +17656,7 @@
         <v>1468729.24179712</v>
       </c>
       <c r="H664">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="665" spans="1:8">
@@ -17682,7 +17682,7 @@
         <v>1465947.69799712</v>
       </c>
       <c r="H665">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="666" spans="1:8">
@@ -17708,7 +17708,7 @@
         <v>1446441.081797119</v>
       </c>
       <c r="H666">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="667" spans="1:8">
@@ -17734,7 +17734,7 @@
         <v>1428987.14479712</v>
       </c>
       <c r="H667">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="668" spans="1:8">

--- a/pred_ohlcv/54_21/2019-10-30 MTL ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-30 MTL ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>-4635.155683050003</v>
       </c>
       <c r="H2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -3330,7 +3330,7 @@
         <v>892559.86051695</v>
       </c>
       <c r="H113">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3382,7 +3382,7 @@
         <v>889684.82871695</v>
       </c>
       <c r="H115">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3590,7 +3590,7 @@
         <v>885509.69091695</v>
       </c>
       <c r="H123">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -3616,7 +3616,7 @@
         <v>885561.70541695</v>
       </c>
       <c r="H124">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -3642,7 +3642,7 @@
         <v>885562.70541695</v>
       </c>
       <c r="H125">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -3668,7 +3668,7 @@
         <v>884902.2454169501</v>
       </c>
       <c r="H126">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -3694,7 +3694,7 @@
         <v>884903.2454169501</v>
       </c>
       <c r="H127">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -3720,7 +3720,7 @@
         <v>887931.1866169501</v>
       </c>
       <c r="H128">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -3746,7 +3746,7 @@
         <v>895632.2723899001</v>
       </c>
       <c r="H129">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -4214,7 +4214,7 @@
         <v>880687.4729898999</v>
       </c>
       <c r="H147">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4240,7 +4240,7 @@
         <v>879424.9973898999</v>
       </c>
       <c r="H148">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4266,7 +4266,7 @@
         <v>879426.1773899</v>
       </c>
       <c r="H149">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4292,7 +4292,7 @@
         <v>879437.2073899</v>
       </c>
       <c r="H150">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -4318,7 +4318,7 @@
         <v>879379.4436899</v>
       </c>
       <c r="H151">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -4344,7 +4344,7 @@
         <v>879379.4436899</v>
       </c>
       <c r="H152">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -4370,7 +4370,7 @@
         <v>879447.4436899</v>
       </c>
       <c r="H153">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -4396,7 +4396,7 @@
         <v>879447.4436899</v>
       </c>
       <c r="H154">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -4422,7 +4422,7 @@
         <v>879071.0108899</v>
       </c>
       <c r="H155">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -4448,7 +4448,7 @@
         <v>878537.8453899</v>
       </c>
       <c r="H156">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -4474,7 +4474,7 @@
         <v>878538.9653899</v>
       </c>
       <c r="H157">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -4500,7 +4500,7 @@
         <v>867053.2106899</v>
       </c>
       <c r="H158">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -4552,7 +4552,7 @@
         <v>865797.5572899</v>
       </c>
       <c r="H160">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -4916,7 +4916,7 @@
         <v>868670.9874853301</v>
       </c>
       <c r="H174">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -4968,7 +4968,7 @@
         <v>868673.9874853301</v>
       </c>
       <c r="H176">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -5072,7 +5072,7 @@
         <v>873067.68008533</v>
       </c>
       <c r="H180">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -5098,7 +5098,7 @@
         <v>873068.68008533</v>
       </c>
       <c r="H181">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -5176,7 +5176,7 @@
         <v>871409.5362853301</v>
       </c>
       <c r="H184">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -5202,7 +5202,7 @@
         <v>873410.5362853301</v>
       </c>
       <c r="H185">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -5280,7 +5280,7 @@
         <v>871965.7980853301</v>
       </c>
       <c r="H188">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -9856,7 +9856,7 @@
         <v>904460.3644848604</v>
       </c>
       <c r="H364">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="365" spans="1:8">
@@ -9882,7 +9882,7 @@
         <v>909496.4525848605</v>
       </c>
       <c r="H365">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="366" spans="1:8">
@@ -9908,7 +9908,7 @@
         <v>909496.4525848605</v>
       </c>
       <c r="H366">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="367" spans="1:8">
@@ -9934,7 +9934,7 @@
         <v>909496.4525848605</v>
       </c>
       <c r="H367">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="368" spans="1:8">
@@ -9986,7 +9986,7 @@
         <v>902225.3484848605</v>
       </c>
       <c r="H369">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="370" spans="1:8">
@@ -10012,7 +10012,7 @@
         <v>900054.2824848605</v>
       </c>
       <c r="H370">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="371" spans="1:8">
@@ -10038,7 +10038,7 @@
         <v>900076.7848848605</v>
       </c>
       <c r="H371">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="372" spans="1:8">
@@ -10064,7 +10064,7 @@
         <v>900076.7848848605</v>
       </c>
       <c r="H372">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="373" spans="1:8">
@@ -10090,7 +10090,7 @@
         <v>895470.2959848605</v>
       </c>
       <c r="H373">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="374" spans="1:8">
@@ -10116,7 +10116,7 @@
         <v>927872.5995848605</v>
       </c>
       <c r="H374">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="375" spans="1:8">
@@ -10142,7 +10142,7 @@
         <v>937214.2145848605</v>
       </c>
       <c r="H375">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="376" spans="1:8">
@@ -11650,7 +11650,7 @@
         <v>908230.8438546804</v>
       </c>
       <c r="H433">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="434" spans="1:8">
@@ -16642,7 +16642,7 @@
         <v>1162306.37966013</v>
       </c>
       <c r="H625">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="626" spans="1:8">
@@ -16668,7 +16668,7 @@
         <v>1145474.62256013</v>
       </c>
       <c r="H626">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="627" spans="1:8">
@@ -16746,7 +16746,7 @@
         <v>1147325.84970673</v>
       </c>
       <c r="H629">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="630" spans="1:8">
@@ -16772,7 +16772,7 @@
         <v>1195547.04478602</v>
       </c>
       <c r="H630">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="631" spans="1:8">
@@ -16798,7 +16798,7 @@
         <v>1188941.84250342</v>
       </c>
       <c r="H631">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="632" spans="1:8">
@@ -16824,7 +16824,7 @@
         <v>1188941.84250342</v>
       </c>
       <c r="H632">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="633" spans="1:8">
@@ -16850,7 +16850,7 @@
         <v>1180031.69060342</v>
       </c>
       <c r="H633">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="634" spans="1:8">
@@ -16876,7 +16876,7 @@
         <v>1190688.39133552</v>
       </c>
       <c r="H634">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="635" spans="1:8">
@@ -16902,7 +16902,7 @@
         <v>1190688.39133552</v>
       </c>
       <c r="H635">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="636" spans="1:8">
@@ -16928,7 +16928,7 @@
         <v>1208607.88078257</v>
       </c>
       <c r="H636">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="637" spans="1:8">
@@ -16954,7 +16954,7 @@
         <v>1241884.56394735</v>
       </c>
       <c r="H637">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="638" spans="1:8">
@@ -16980,7 +16980,7 @@
         <v>1336574.10888612</v>
       </c>
       <c r="H638">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="639" spans="1:8">
@@ -17006,7 +17006,7 @@
         <v>1336574.10888612</v>
       </c>
       <c r="H639">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="640" spans="1:8">
@@ -17032,7 +17032,7 @@
         <v>1373617.86078612</v>
       </c>
       <c r="H640">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="641" spans="1:8">
@@ -17058,7 +17058,7 @@
         <v>1373617.86078612</v>
       </c>
       <c r="H641">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="642" spans="1:8">
@@ -17084,7 +17084,7 @@
         <v>1373617.86078612</v>
       </c>
       <c r="H642">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="643" spans="1:8">
@@ -17110,7 +17110,7 @@
         <v>1373617.86078612</v>
       </c>
       <c r="H643">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="644" spans="1:8">
@@ -17136,7 +17136,7 @@
         <v>1384904.82711555</v>
       </c>
       <c r="H644">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="645" spans="1:8">
@@ -17162,7 +17162,7 @@
         <v>1371678.83691555</v>
       </c>
       <c r="H645">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="646" spans="1:8">
@@ -17188,7 +17188,7 @@
         <v>1327880.26951555</v>
       </c>
       <c r="H646">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="647" spans="1:8">
@@ -17214,7 +17214,7 @@
         <v>1327880.26951555</v>
       </c>
       <c r="H647">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="648" spans="1:8">
@@ -17266,7 +17266,7 @@
         <v>1472404.32193887</v>
       </c>
       <c r="H649">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="650" spans="1:8">
@@ -17292,7 +17292,7 @@
         <v>1519118.28743887</v>
       </c>
       <c r="H650">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="651" spans="1:8">
@@ -17318,7 +17318,7 @@
         <v>1474337.24623887</v>
       </c>
       <c r="H651">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="652" spans="1:8">
@@ -17344,7 +17344,7 @@
         <v>1444252.82663887</v>
       </c>
       <c r="H652">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="653" spans="1:8">
@@ -17370,7 +17370,7 @@
         <v>1464285.22765914</v>
       </c>
       <c r="H653">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="654" spans="1:8">
@@ -17422,7 +17422,7 @@
         <v>1506986.26023679</v>
       </c>
       <c r="H655">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="656" spans="1:8">
@@ -17448,7 +17448,7 @@
         <v>1486898.15293679</v>
       </c>
       <c r="H656">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="657" spans="1:8">
@@ -17474,7 +17474,7 @@
         <v>1480799.81303679</v>
       </c>
       <c r="H657">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="658" spans="1:8">
@@ -17500,7 +17500,7 @@
         <v>1463828.13553679</v>
       </c>
       <c r="H658">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="659" spans="1:8">
@@ -17526,7 +17526,7 @@
         <v>1484273.76763679</v>
       </c>
       <c r="H659">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="660" spans="1:8">
@@ -17552,7 +17552,7 @@
         <v>1478563.01123679</v>
       </c>
       <c r="H660">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="661" spans="1:8">
@@ -17578,7 +17578,7 @@
         <v>1478563.01123679</v>
       </c>
       <c r="H661">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="662" spans="1:8">
@@ -17604,7 +17604,7 @@
         <v>1472863.26453679</v>
       </c>
       <c r="H662">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="663" spans="1:8">
@@ -17630,7 +17630,7 @@
         <v>1480047.31363679</v>
       </c>
       <c r="H663">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="664" spans="1:8">
@@ -17656,7 +17656,7 @@
         <v>1468729.24179712</v>
       </c>
       <c r="H664">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="665" spans="1:8">
@@ -17682,7 +17682,7 @@
         <v>1465947.69799712</v>
       </c>
       <c r="H665">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="666" spans="1:8">
@@ -17708,7 +17708,7 @@
         <v>1446441.081797119</v>
       </c>
       <c r="H666">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="667" spans="1:8">
@@ -17734,7 +17734,7 @@
         <v>1428987.14479712</v>
       </c>
       <c r="H667">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="668" spans="1:8">
@@ -17812,7 +17812,7 @@
         <v>1480089.20000664</v>
       </c>
       <c r="H670">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="671" spans="1:8">
@@ -17838,7 +17838,7 @@
         <v>1480089.20000664</v>
       </c>
       <c r="H671">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="672" spans="1:8">
